--- a/biology/Botanique/Eschscholzia/Eschscholzia.xlsx
+++ b/biology/Botanique/Eschscholzia/Eschscholzia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eschscholzia est un genre de la famille des Papaveraceae (la famille du pavot somnifère et du coquelicot) qui comprend notamment le pavot de Californie (Eschscholzia californica) cultivé pour ses propriétés somnifères ainsi que dans les jardins pour une utilisation ornementale.
 Ce nom a été choisi par le poète romantique allemand et explorateur Adelbert von Chamisso (1781-1838) en  souvenir de son ami et collègue Johann Friedrich von Eschscholtz (1793-1831), durant l'expédition scientifique effectuée en Californie au début du  XIXe siècle et menée par Otto von Kotzebue (1787-1846).
@@ -489,7 +501,7 @@
 Eschholtzia Rchb.
 Escholtzia Dumort.
 Eschscholtzia Bernh.
-L'Eschscholzia est une plante annuelle. Les semis se font au printemps (avril) ou à l'automne pour une floraison l'année suivante[1].
+L'Eschscholzia est une plante annuelle. Les semis se font au printemps (avril) ou à l'automne pour une floraison l'année suivante.
 </t>
         </is>
       </c>
@@ -518,7 +530,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eschscholzia caespitosa Benth.
 Eschscholzia californica Cham., pavot de Californie, fleur-emblème de l'État de Californie, et espèce largement cultivée du fait de ses propriétés sédatives.
